--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3935.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3935.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281672674970492</v>
+        <v>0.3765771687030792</v>
       </c>
       <c r="B1">
-        <v>1.925403253894498</v>
+        <v>1.112336039543152</v>
       </c>
       <c r="C1">
-        <v>4.198697492099535</v>
+        <v>6.598748683929443</v>
       </c>
       <c r="D1">
-        <v>5.768946302728725</v>
+        <v>1.839280605316162</v>
       </c>
       <c r="E1">
-        <v>1.470770117488728</v>
+        <v>1.535422801971436</v>
       </c>
     </row>
   </sheetData>
